--- a/Data Files/TestData/NexCare/Master Data/Pengguna/Pengguna - add.xlsx
+++ b/Data Files/TestData/NexCare/Master Data/Pengguna/Pengguna - add.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7695"/>
+    <workbookView windowWidth="19635" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Pengguna-add" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="82">
   <si>
     <t>TD</t>
   </si>
@@ -88,13 +88,13 @@
     <t>Nexsoft</t>
   </si>
   <si>
-    <t>Katalon2@mail.com</t>
+    <t>katalon12@mail.com</t>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
-    <t>Katalon Manager</t>
+    <t>Khairina Wardina</t>
   </si>
   <si>
     <t>N</t>
@@ -121,10 +121,10 @@
     <t>Perempuan</t>
   </si>
   <si>
-    <t>katalon02</t>
-  </si>
-  <si>
-    <t>Katalon01@2022</t>
+    <t>katalon12</t>
+  </si>
+  <si>
+    <t>Katalon02@123</t>
   </si>
   <si>
     <t>cso</t>
@@ -136,7 +136,7 @@
     <t>TDG220602</t>
   </si>
   <si>
-    <t>Katalon3@mail.com</t>
+    <t>katalon13@mail.com</t>
   </si>
   <si>
     <t>Level 2</t>
@@ -157,7 +157,10 @@
     <t>Laki-Laki</t>
   </si>
   <si>
-    <t>katalon03</t>
+    <t>katalon13</t>
+  </si>
+  <si>
+    <t>Katalon03@123</t>
   </si>
   <si>
     <t>cs_lead</t>
@@ -166,7 +169,10 @@
     <t>TDG220603</t>
   </si>
   <si>
-    <t>Katalon4@mail.com</t>
+    <t>Katalon14@mail.com</t>
+  </si>
+  <si>
+    <t>Brillian Mahayana Putra</t>
   </si>
   <si>
     <t>3671072606990992</t>
@@ -175,7 +181,10 @@
     <t>Coordinator</t>
   </si>
   <si>
-    <t>katalon04</t>
+    <t>katalon14</t>
+  </si>
+  <si>
+    <t>Katalon04@123</t>
   </si>
   <si>
     <t>cs_coordinator</t>
@@ -184,7 +193,7 @@
     <t>TDG220604</t>
   </si>
   <si>
-    <t>Katalon5@mail.com</t>
+    <t>Katalon15@mail.com</t>
   </si>
   <si>
     <t>3671072606990994</t>
@@ -193,7 +202,10 @@
     <t>Admin</t>
   </si>
   <si>
-    <t>katalon05</t>
+    <t>katalon15</t>
+  </si>
+  <si>
+    <t>Katalon05@123</t>
   </si>
   <si>
     <t>cs_admin</t>
@@ -205,7 +217,7 @@
     <t>Distributor</t>
   </si>
   <si>
-    <t>Katalon6@mail.com</t>
+    <t>Katalon16@mail.com</t>
   </si>
   <si>
     <t>Pt Rukun Mitra Sejati Blitar,Pt Rukun Mitra Sejati Yogyakarta</t>
@@ -214,7 +226,10 @@
     <t>3671072606990993</t>
   </si>
   <si>
-    <t>katalon06</t>
+    <t>katalon16</t>
+  </si>
+  <si>
+    <t>Katalon06@123</t>
   </si>
   <si>
     <t>customer</t>
@@ -229,13 +244,16 @@
     <t>Principal</t>
   </si>
   <si>
-    <t>Katalon7@mail.com</t>
+    <t>Katalon17@mail.com</t>
   </si>
   <si>
     <t>3671072606990995</t>
   </si>
   <si>
-    <t>katalon07</t>
+    <t>katalon17</t>
+  </si>
+  <si>
+    <t>Katalon07@123</t>
   </si>
   <si>
     <t>principal</t>
@@ -249,10 +267,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -286,30 +304,41 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -321,6 +350,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -330,43 +374,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -374,11 +381,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -390,24 +396,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,37 +440,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,31 +572,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,13 +590,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,91 +620,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,11 +634,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,25 +683,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,6 +714,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -698,168 +731,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -873,10 +891,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -885,52 +903,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1203,8 +1221,8 @@
   <sheetPr/>
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6"/>
@@ -1311,7 +1329,7 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>87776839909</v>
+        <v>87776839915</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -1349,7 +1367,7 @@
       <c r="R2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="3" t="s">
         <v>36</v>
       </c>
       <c r="T2" t="s">
@@ -1373,7 +1391,7 @@
         <v>40</v>
       </c>
       <c r="E3">
-        <v>87776839910</v>
+        <v>87776839916</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
@@ -1409,13 +1427,13 @@
         <v>47</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>36</v>
+        <v>48</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="T3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U3" t="s">
         <v>38</v>
@@ -1423,7 +1441,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>22</v>
@@ -1432,22 +1450,22 @@
         <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4">
-        <v>87776839911</v>
+        <v>87776839917</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s">
         <v>25</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M4" t="s">
         <v>44</v>
@@ -1456,22 +1474,22 @@
         <v>32</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s">
         <v>46</v>
       </c>
       <c r="Q4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>36</v>
+        <v>56</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="T4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U4" t="s">
         <v>38</v>
@@ -1479,7 +1497,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>22</v>
@@ -1488,10 +1506,10 @@
         <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E5">
-        <v>87776839912</v>
+        <v>87776839918</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -1500,7 +1518,7 @@
         <v>25</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M5" t="s">
         <v>31</v>
@@ -1509,22 +1527,22 @@
         <v>32</v>
       </c>
       <c r="O5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P5" t="s">
         <v>34</v>
       </c>
       <c r="Q5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="T5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U5" t="s">
         <v>38</v>
@@ -1532,25 +1550,25 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E6">
-        <v>87776839913</v>
+        <v>87776839919</v>
       </c>
       <c r="K6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M6" t="s">
         <v>31</v>
@@ -1559,45 +1577,45 @@
         <v>32</v>
       </c>
       <c r="O6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P6" t="s">
         <v>34</v>
       </c>
       <c r="Q6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="T6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="U6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E7">
-        <v>87776839914</v>
+        <v>87776839920</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="M7" t="s">
         <v>44</v>
@@ -1606,47 +1624,47 @@
         <v>32</v>
       </c>
       <c r="O7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="P7" t="s">
         <v>46</v>
       </c>
       <c r="Q7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="T7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="U7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" display="Katalon6@mail.com" tooltip="mailto:Katalon6@mail.com"/>
-    <hyperlink ref="R6" r:id="rId2" display="Katalon01@2022" tooltip="mailto:Katalon01@2022"/>
-    <hyperlink ref="S6" r:id="rId2" display="Katalon01@2022" tooltip="mailto:Katalon01@2022"/>
-    <hyperlink ref="D7" r:id="rId1" display="Katalon7@mail.com" tooltip="mailto:Katalon6@mail.com"/>
-    <hyperlink ref="R7" r:id="rId2" display="Katalon01@2022" tooltip="mailto:Katalon01@2022"/>
-    <hyperlink ref="D2" r:id="rId3" display="Katalon2@mail.com"/>
-    <hyperlink ref="R2" r:id="rId2" display="Katalon01@2022" tooltip="mailto:Katalon01@2022"/>
-    <hyperlink ref="S2" r:id="rId2" display="Katalon01@2022" tooltip="mailto:Katalon01@2022"/>
-    <hyperlink ref="D3" r:id="rId3" display="Katalon3@mail.com"/>
-    <hyperlink ref="D4" r:id="rId3" display="Katalon4@mail.com"/>
-    <hyperlink ref="R3" r:id="rId2" display="Katalon01@2022" tooltip="mailto:Katalon01@2022"/>
-    <hyperlink ref="R4" r:id="rId2" display="Katalon01@2022" tooltip="mailto:Katalon01@2022"/>
-    <hyperlink ref="D5" r:id="rId3" display="Katalon5@mail.com"/>
-    <hyperlink ref="S3" r:id="rId2" display="Katalon01@2022" tooltip="mailto:Katalon01@2022"/>
-    <hyperlink ref="S4" r:id="rId2" display="Katalon01@2022" tooltip="mailto:Katalon01@2022"/>
-    <hyperlink ref="R5" r:id="rId2" display="Katalon01@2022" tooltip="mailto:Katalon01@2022"/>
-    <hyperlink ref="S5" r:id="rId2" display="Katalon01@2022" tooltip="mailto:Katalon01@2022"/>
-    <hyperlink ref="S7" r:id="rId2" display="Katalon01@2022" tooltip="mailto:Katalon01@2022"/>
+    <hyperlink ref="D6" r:id="rId1" display="Katalon16@mail.com" tooltip="mailto:Katalon16@mail.com"/>
+    <hyperlink ref="R6" r:id="rId2" display="Katalon06@123" tooltip="mailto:Katalon06@123"/>
+    <hyperlink ref="D7" r:id="rId3" display="Katalon17@mail.com" tooltip="mailto:Katalon17@mail.com"/>
+    <hyperlink ref="R7" r:id="rId4" display="Katalon07@123" tooltip="mailto:Katalon07@123"/>
+    <hyperlink ref="R2" r:id="rId5" display="Katalon02@123" tooltip="mailto:Katalon02@123"/>
+    <hyperlink ref="D3" r:id="rId6" display="katalon13@mail.com" tooltip="mailto:katalon13@mail.com"/>
+    <hyperlink ref="D4" r:id="rId7" display="Katalon14@mail.com" tooltip="mailto:Katalon14@mail.com"/>
+    <hyperlink ref="R3" r:id="rId8" display="Katalon03@123" tooltip="mailto:Katalon03@123"/>
+    <hyperlink ref="R4" r:id="rId9" display="Katalon04@123" tooltip="mailto:Katalon04@123"/>
+    <hyperlink ref="D5" r:id="rId10" display="Katalon15@mail.com" tooltip="mailto:Katalon15@mail.com"/>
+    <hyperlink ref="R5" r:id="rId11" display="Katalon05@123" tooltip="mailto:Katalon05@123"/>
+    <hyperlink ref="S6" r:id="rId2" display="Katalon06@123" tooltip="mailto:Katalon06@123"/>
+    <hyperlink ref="S7" r:id="rId4" display="Katalon07@123" tooltip="mailto:Katalon07@123"/>
+    <hyperlink ref="S2" r:id="rId5" display="Katalon02@123" tooltip="mailto:Katalon02@123"/>
+    <hyperlink ref="S3" r:id="rId8" display="Katalon03@123" tooltip="mailto:Katalon03@123"/>
+    <hyperlink ref="S4" r:id="rId9" display="Katalon04@123" tooltip="mailto:Katalon04@123"/>
+    <hyperlink ref="D2" r:id="rId12" display="katalon12@mail.com" tooltip="mailto:katalon12@mail.com"/>
+    <hyperlink ref="S5" r:id="rId11" display="Katalon05@123" tooltip="mailto:Katalon05@123"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Data Files/TestData/NexCare/Master Data/Pengguna/Pengguna - add.xlsx
+++ b/Data Files/TestData/NexCare/Master Data/Pengguna/Pengguna - add.xlsx
@@ -1221,8 +1221,8 @@
   <sheetPr/>
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6"/>
